--- a/Mifos Automation Excels/Client/2659-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-AccCL1stFEB-OVERDUE-FEE-FLAT-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2659-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-AccCL1stFEB-OVERDUE-FEE-FLAT-Newcreateloan1.xlsx
@@ -178,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,14 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -217,27 +225,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -272,7 +265,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,12 +915,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>39</v>
       </c>
@@ -965,7 +960,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>297.55</v>
+        <v>747.98</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -977,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="14">
-        <v>297.55</v>
+        <v>747.98</v>
       </c>
       <c r="F3" s="14">
         <v>297.55</v>
